--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW21.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW21.xlsx
@@ -1699,37 +1699,37 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6.76258071840057</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.531517089995706</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.559361374733392</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.941495849160726</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.466358288397393</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.35698792938369</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.752028819983126</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.66516754568913</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.714474421199156</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.980073109455571</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>6.6019941721445194</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1.506646872139211</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.5007336696949543</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>1.289031427815907</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.537444136074758</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.4684241118966508</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.532784487678557</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.330817458578556</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.6257577509808483</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.5026587081595493</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>1.282790192590468</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>1.2712072321668892</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.548040304193812</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.285833472150538</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2718273169288608</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.4895999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.4886695646700658</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.4583154366203788</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.4083894243269308</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.4531734963036285</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.3162239079471496</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.4849817387113666</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.4760241852903733</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -5803,37 +5803,37 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6563043413426661</v>
+        <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7729942073207295</v>
+        <v>0.0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6673169923057259</v>
+        <v>0.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7829363519810552</v>
+        <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7766871453809341</v>
+        <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7749968358625342</v>
+        <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.757396939797657</v>
+        <v>0.0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6475828116603256</v>
+        <v>0.0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.744735976309669</v>
+        <v>0.0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.6360641126086666</v>
+        <v>0.0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.7554653413335378</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.24167802609375771</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.28464799398552754</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2457333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.28830909714344727</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.28600788439711744</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.28538544349255385</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.2789044439433005</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2384664031539581</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.27424216080502023</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.23422474836880483</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2781931506078656</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>1.8079610606863754</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>1.8375310602134598</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>1.7426499100844652</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>1.542085654846616</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>1.8225001443305133</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>1.5530721469609186</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>1.7521699068604355</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>1.812051268946481</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.9172590469034574</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>1.6981908871397036</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>1.5754871677703481</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1.2762415277697183</v>
+        <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>1.2478718280853653</v>
+        <v>0.0</v>
       </c>
       <c r="D185" t="n">
-        <v>1.1801466825718816</v>
+        <v>0.0</v>
       </c>
       <c r="E185" t="n">
-        <v>1.2335193091743357</v>
+        <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>1.2145812451345115</v>
+        <v>0.0</v>
       </c>
       <c r="G185" t="n">
-        <v>1.0461746049680032</v>
+        <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>1.0972194820689374</v>
+        <v>0.0</v>
       </c>
       <c r="I185" t="n">
-        <v>1.2152158955727066</v>
+        <v>0.0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.2441703122316004</v>
+        <v>0.0</v>
       </c>
       <c r="K185" t="n">
-        <v>1.2392337378221363</v>
+        <v>0.0</v>
       </c>
       <c r="L185" t="n">
-        <v>1.057090830063474</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.933671393461206</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2.8684585206670454</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>2.712780055668252</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>2.8354666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.7919341099269888</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>2.4048210659024996</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>2.522156924731232</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>2.7933929684540533</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.8599499187007624</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>2.848602311831986</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>2.429913978639112</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7437,37 +7437,37 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9220896889303503</v>
+        <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7542320136673205</v>
+        <v>0.0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8943803765850158</v>
+        <v>0.0</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8101333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8816992433726929</v>
+        <v>0.0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.8667864039522714</v>
+        <v>0.0</v>
       </c>
       <c r="H194" t="n">
-        <v>0.7842991730812319</v>
+        <v>0.0</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9088072327403922</v>
+        <v>0.0</v>
       </c>
       <c r="J194" t="n">
-        <v>0.9155303113097111</v>
+        <v>0.0</v>
       </c>
       <c r="K194" t="n">
-        <v>0.815393410133344</v>
+        <v>0.0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.9001934329521055</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5010145728681403</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.49515943261247763</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6090449705628389</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4965333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5473041070341413</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>0.514206490622238</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5620910209928904</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.4839850809402329</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>0.5646070833472074</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5027228783669124</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5867699770091342</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.24283869603302718</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.24000074539890495</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2952003683850495</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.26527494983797667</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.24923273780159494</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.2724420765016561</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.23458460555776595</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2736615965203301</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.24366670124926876</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.28440381538708037</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.43475854378641837</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5332355095078049</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.511509335532085</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4965333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.5004241029913192</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.43017615953727373</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5053242166436692</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4343921628736213</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5147460480409586</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>0.5074784608755174</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>0.48398895457109764</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.6308187924802053</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.7737052785339389</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7421813923942535</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7204517593411112</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.7260971242282357</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.6241699200427591</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7332070104429382</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6302871871367299</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.7468777442098403</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.7363327402634648</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.7022503232191442</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8387,37 +8387,37 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="n">
-        <v>0.6308187924802053</v>
+        <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>0.7737052785339389</v>
+        <v>0.0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7421813923942535</v>
+        <v>0.0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.7204517593411112</v>
+        <v>0.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.7260971242282357</v>
+        <v>0.0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.6241699200427591</v>
+        <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.7332070104429382</v>
+        <v>0.0</v>
       </c>
       <c r="I219" t="n">
-        <v>0.6302871871367299</v>
+        <v>0.0</v>
       </c>
       <c r="J219" t="n">
-        <v>0.7468777442098403</v>
+        <v>0.0</v>
       </c>
       <c r="K219" t="n">
-        <v>0.7363327402634648</v>
+        <v>0.0</v>
       </c>
       <c r="L219" t="n">
-        <v>0.7022503232191442</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9127997940489339</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9347545093446087</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.7874716334328656</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.8167977838583803</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.8237572892527705</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.9602660867182922</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.9607841821183377</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.9325808659162581</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.9494896754597197</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>1.0042867005038378</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.9480556859726621</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>5.31010619066613</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>5.749165986741024</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>6.591569030760946</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>5.943444198296573</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>6.249117079786085</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>6.156455205367485</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>6.26749122035798</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>6.332577100054346</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>6.3133788935723</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>6.097600477889831</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>5.34265175524121</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>2.5004733190651454</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>2.488221967582206</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>2.5326994175379163</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>2.4304</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>2.109878769830024</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>2.4485745104908254</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>2.4017275306575914</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.1667357448945985</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>2.044394906914893</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>2.4033549220355908</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>2.403462388863367</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>1.6195002810761254</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>1.739256268505592</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>1.5288561516034116</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>1.653215322203375</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>1.6933706061476401</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>1.6730654713807207</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>1.712270669778572</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>1.7088130459836324</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>1.4491488009980844</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>1.7166142427414026</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>1.6678770857504521</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.282160696178579</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.28677555865210747</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.27196786618750446</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.2844297483457042</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.24238128117410257</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.2734536110834182</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.28279903736594314</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.2992183621607327</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.2650293379535219</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.24587949693437172</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.353931913918247</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.38234655904705267</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.3507113541294813</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.34479574097180143</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.4075385803904904</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.4078481700787572</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.4060390939582647</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.34521711850064235</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.3475557440530099</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.4342184066644371</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>0.9053520399206404</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9271276213881254</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>0.7810464620567871</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>0.8101333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>0.8170360544412131</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>0.9524310436362897</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>0.9529449117707511</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>0.9249717132418405</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>0.9417425597216568</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>0.9960924825949031</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>0.9403202705013957</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>0.8181981740211154</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>0.6796118913432915</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>0.6722091056429537</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>0.7873102507215233</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>0.7868184802644271</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>0.7707751691975417</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>0.7443873729728638</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>0.7680574581878911</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>0.6956743924352401</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>0.7848693239941795</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>0.7801349163480102</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>0.24081093378277146</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>0.23986581264750093</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>0.20602894251321702</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.23470169959128706</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>0.2449885707070417</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>0.21270770266140082</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>0.2598487073234389</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>0.24017349609927666</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>0.20503139112251725</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>0.20318005915671264</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.4015937336607836</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.37135565816421695</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.3881503728997728</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.38219114991527176</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.32919878920129</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.3452610331677931</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.3823908547779474</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.39150191411820834</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.389948526843579</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.3326337875916281</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>1.9035748372214063</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>1.8813285827955595</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>2.3140298575802096</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>1.8865486362285153</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>2.079449147544693</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>1.9536967379630115</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>2.135631140756776</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>1.8388723034426908</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>2.1451907688513034</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>1.9100654415627802</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>2.229397354806162</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.25647185110971615</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.21956826215142625</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.25364288243886096</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.2129446162814936</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.2535510896846582</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.25997208719835196</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.21892386283039494</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.2516946740877795</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.2580905037709718</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.26060194081808463</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.7523654789020582</v>
+        <v>-0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.69477709165497</v>
+        <v>-0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>-0.7440593863501853</v>
+        <v>-0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.8018666666666666</v>
+        <v>-0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>-0.7638497626803742</v>
+        <v>-0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>-0.7503377390826756</v>
+        <v>-0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>-0.6474074898096708</v>
+        <v>-0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>-0.6647780846592481</v>
+        <v>-0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>-0.75266419100937</v>
+        <v>-0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>-0.7289893869496558</v>
+        <v>-0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>-0.7273119891653884</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="610">
